--- a/Empresas_medianas.xlsx
+++ b/Empresas_medianas.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DB16976C-8281-453E-AA3C-683FD2C17624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5146B-229D-45DD-8A3E-DB021163AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas_medianas" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t>CONCESIONARIO</t>
   </si>
@@ -214,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,8 +693,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -739,7 +743,14 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -750,6 +761,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8CBEE92-E908-4545-BDEA-7CF2448E3CB7}" name="Tabla2" displayName="Tabla2" ref="B1:E28" totalsRowShown="0" headerRowDxfId="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{69E75B2D-B562-4BB1-B361-6C3C5DCA6D26}" name="CONCESIONARIO"/>
+    <tableColumn id="2" xr3:uid="{A0EE9517-B462-42F1-A088-F57E24CEFBBF}" name="EMPRESA"/>
+    <tableColumn id="3" xr3:uid="{52B94998-96E8-473C-9D0F-D3610F89B1FA}" name="GRUPO"/>
+    <tableColumn id="4" xr3:uid="{310F093D-B9E1-4C5F-9A65-1F9CE56DB6FD}" name="INGRESOS_TOTAL_E"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D14D3006-9171-445B-B469-170728190E43}" name="Tabla3" displayName="Tabla3" ref="G1:J14" totalsRowShown="0" headerRowDxfId="1">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{ED3F14C3-F691-41AE-9CE2-BC96E413BB2D}" name="CONCESIONARIO"/>
+    <tableColumn id="2" xr3:uid="{822F384D-7A8E-4CD1-A49E-E7DF7223B2C1}" name="EMPRESA"/>
+    <tableColumn id="3" xr3:uid="{FE6E8342-8F41-4381-BFCB-16C7A30C9B51}" name="GRUPO"/>
+    <tableColumn id="4" xr3:uid="{DBBFF944-B0BE-4A21-AA10-1BD372ADA34C}" name="INGRESOS_TOTAL_E"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{684545FF-FAD0-4262-84E6-1193C93132C4}" name="Tabla1" displayName="Tabla1" ref="B2:B25" totalsRowShown="0">
+  <autoFilter ref="B2:B25" xr:uid="{684545FF-FAD0-4262-84E6-1193C93132C4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8C91D902-5E83-4F7F-B0B2-E1F5992B7A8C}" name="GRUPO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,33 +1093,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42.81640625" customWidth="1"/>
+    <col min="3" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>47</v>
       </c>
@@ -1091,7 +1154,7 @@
         <v>858427008.60000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>115</v>
       </c>
@@ -1108,7 +1171,7 @@
         <v>729143369.60000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>71</v>
       </c>
@@ -1125,7 +1188,7 @@
         <v>697511563.79999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>74</v>
       </c>
@@ -1142,7 +1205,7 @@
         <v>623598170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>93</v>
       </c>
@@ -1159,7 +1222,7 @@
         <v>567683560.59999895</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>55</v>
       </c>
@@ -1176,7 +1239,7 @@
         <v>503481972.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>122</v>
       </c>
@@ -1193,7 +1256,7 @@
         <v>422431822.93999898</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>128</v>
       </c>
@@ -1210,7 +1273,7 @@
         <v>330305215</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>132</v>
       </c>
@@ -1227,7 +1290,7 @@
         <v>258650617.38999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1244,7 +1307,7 @@
         <v>217920735</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1261,7 +1324,7 @@
         <v>214085985.14999899</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>48</v>
       </c>
@@ -1278,7 +1341,7 @@
         <v>171006327</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>103</v>
       </c>
@@ -1295,7 +1358,7 @@
         <v>168138066.74000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>135</v>
       </c>
@@ -1312,7 +1375,7 @@
         <v>166683898.519999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>57</v>
       </c>
@@ -1535,5 +1598,219 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A576D-28EC-43B3-A307-62868062D14B}">
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Empresas_medianas.xlsx
+++ b/Empresas_medianas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5146B-229D-45DD-8A3E-DB021163AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E6B4A6-4A74-4DA6-8C33-F044E155410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Empresas_medianas" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>CONCESIONARIO</t>
   </si>
@@ -32,9 +45,6 @@
     <t>GRUPO</t>
   </si>
   <si>
-    <t>INGRESOS_TOTAL_E</t>
-  </si>
-  <si>
     <t>GRUPO W COM, S.A. DE C.V.</t>
   </si>
   <si>
@@ -44,9 +54,6 @@
     <t>STARGROUP</t>
   </si>
   <si>
-    <t>TELECOMUNICACIONES 360, S.A. DE C.V.</t>
-  </si>
-  <si>
     <t>OUI</t>
   </si>
   <si>
@@ -65,9 +72,6 @@
     <t>TRANSTELCO</t>
   </si>
   <si>
-    <t>SATELITES MEXICANOS, S.A. DE C.V.</t>
-  </si>
-  <si>
     <t>EUTELSAT AMERICAS</t>
   </si>
   <si>
@@ -170,9 +174,6 @@
     <t>DIRI MOVIL</t>
   </si>
   <si>
-    <t>SIHI MEXICO, S. DE R.L. DE C.V.</t>
-  </si>
-  <si>
     <t>SIHI MEXICO</t>
   </si>
   <si>
@@ -209,13 +210,79 @@
     <t>AXESS NET.SOLUTIONS MEXICO, S.A. DE C.V._</t>
   </si>
   <si>
-    <t>ELARA COMUNICACIONES, S.A.P.I. DE C.V._</t>
+    <t>ISLIM TELCO, S.A.P.I. DE C.V.</t>
+  </si>
+  <si>
+    <t>NETWEY</t>
+  </si>
+  <si>
+    <t>CTL MEXICO LANDING, S. DE R.L.</t>
+  </si>
+  <si>
+    <t>CENTURYLINK</t>
+  </si>
+  <si>
+    <t>TELIA CARRIER COMMUNICATIONS MEXICO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELIA CARRIER COMMUNICATIONS MEXICO</t>
+  </si>
+  <si>
+    <t>SERVICIOS TRONCALIZADOS, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>SERVITRON</t>
+  </si>
+  <si>
+    <t>TELECABLE DEL MINERAL, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECABLE DEL MINERAL</t>
+  </si>
+  <si>
+    <t>TELESISTEMAS PENINSULARES, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELESISTEMAS PENINSULARES</t>
+  </si>
+  <si>
+    <t>GRUPO TELECABLE</t>
+  </si>
+  <si>
+    <t>TELECABLE DE CAMPECHE, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECABLE DE CAMPECHE</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TICUL, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TICUL</t>
+  </si>
+  <si>
+    <t>TELECABLE DE CUERNAVACA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECABLE DE CUERNAVACA</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TEKAX, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TEKAX</t>
+  </si>
+  <si>
+    <t>ELARA COMUNICACIONES, S.A.P.I. DE  C.V.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +599,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -648,6 +721,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -693,11 +779,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -743,12 +828,44 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -764,34 +881,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D8CBEE92-E908-4545-BDEA-7CF2448E3CB7}" name="Tabla2" displayName="Tabla2" ref="B1:E28" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{69E75B2D-B562-4BB1-B361-6C3C5DCA6D26}" name="CONCESIONARIO"/>
-    <tableColumn id="2" xr3:uid="{A0EE9517-B462-42F1-A088-F57E24CEFBBF}" name="EMPRESA"/>
-    <tableColumn id="3" xr3:uid="{52B94998-96E8-473C-9D0F-D3610F89B1FA}" name="GRUPO"/>
-    <tableColumn id="4" xr3:uid="{310F093D-B9E1-4C5F-9A65-1F9CE56DB6FD}" name="INGRESOS_TOTAL_E"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC720374-05F7-47F5-833E-02E5DA6C5AB4}" name="Tabla3" displayName="Tabla3" ref="B1:D35" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3541AB1D-5B16-4E5D-8E3C-B098B918BED1}" name="CONCESIONARIO"/>
+    <tableColumn id="2" xr3:uid="{FA07F84E-6B51-4DB7-8464-D6FAE3212922}" name="EMPRESA"/>
+    <tableColumn id="3" xr3:uid="{21DCA2E1-A1BD-4E69-BCB3-6DC84E7F3816}" name="GRUPO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D14D3006-9171-445B-B469-170728190E43}" name="Tabla3" displayName="Tabla3" ref="G1:J14" totalsRowShown="0" headerRowDxfId="1">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED3F14C3-F691-41AE-9CE2-BC96E413BB2D}" name="CONCESIONARIO"/>
-    <tableColumn id="2" xr3:uid="{822F384D-7A8E-4CD1-A49E-E7DF7223B2C1}" name="EMPRESA"/>
-    <tableColumn id="3" xr3:uid="{FE6E8342-8F41-4381-BFCB-16C7A30C9B51}" name="GRUPO"/>
-    <tableColumn id="4" xr3:uid="{DBBFF944-B0BE-4A21-AA10-1BD372ADA34C}" name="INGRESOS_TOTAL_E"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{684545FF-FAD0-4262-84E6-1193C93132C4}" name="Tabla1" displayName="Tabla1" ref="B2:B25" totalsRowShown="0">
+  <autoFilter ref="B2:B25" xr:uid="{684545FF-FAD0-4262-84E6-1193C93132C4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8C91D902-5E83-4F7F-B0B2-E1F5992B7A8C}" name="GRUPO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{684545FF-FAD0-4262-84E6-1193C93132C4}" name="Tabla1" displayName="Tabla1" ref="B2:B25" totalsRowShown="0">
-  <autoFilter ref="B2:B25" xr:uid="{684545FF-FAD0-4262-84E6-1193C93132C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6CB2D4B2-6475-416C-8907-110EFCAC724B}" name="Tabla2" displayName="Tabla2" ref="E1:E27" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8C91D902-5E83-4F7F-B0B2-E1F5992B7A8C}" name="GRUPO"/>
+    <tableColumn id="1" xr3:uid="{62D901E1-861B-44A3-97EA-7E6A27388D37}" name="GRUPO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1094,69 +1207,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="42.81640625" customWidth="1"/>
     <col min="3" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" customWidth="1"/>
-    <col min="7" max="7" width="48.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1">
+        <v>858427008.60000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>858427008.60000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>697511563.79999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1168,432 +1269,845 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>729143369.60000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>667930436.20000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>623598170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>697511563.79999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5">
+        <v>512839717.19999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>503481972.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>623598170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>422577609.80000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>329453439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>279907379.63999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>255765156.329999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>567683560.59999895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>503481972.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>422431822.93999898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>330305215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>258650617.38999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>217920735</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>214085985.14999899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>195055919.44999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>171006327</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>168138066.74000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>166683898.519999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>152043313.94999999</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>147707694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>146563495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>139535703.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>134141677.70999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>114326115.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <v>112440924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>98055591.640000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>85875584.599999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>83697002.459999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>83430627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>82752385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>65733283.600000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>60953802</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>56882777.339999899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31">
+        <v>37452991.159999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>13975584.41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>7884565.2599999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>5473548.8799999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A576D-28EC-43B3-A307-62868062D14B}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.54296875" customWidth="1"/>
+    <col min="5" max="5" width="39.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>146563495</v>
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>139535703.13</v>
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19">
-        <v>134141677.70999999</v>
+      <c r="E19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <v>112440924</v>
+      <c r="E20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>98055591.640000001</v>
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>88198181.799999997</v>
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23">
-        <v>85875584.599999994</v>
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24">
-        <v>83697002.459999993</v>
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25">
-        <v>83430627</v>
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26">
-        <v>82752385</v>
+      <c r="E26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27">
-        <v>65733283.600000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>60953802</v>
+      <c r="E27" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1603,214 +2117,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A576D-28EC-43B3-A307-62868062D14B}">
-  <dimension ref="A2:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="42.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>